--- a/medicine/Hématologie/Gazométrie_artérielle/Gazométrie_artérielle.xlsx
+++ b/medicine/Hématologie/Gazométrie_artérielle/Gazométrie_artérielle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gazom%C3%A9trie_art%C3%A9rielle</t>
+          <t>Gazométrie_artérielle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La gazométrie artérielle (aussi appelée gaz du sang artériel, GDSA ou GDS dans le langage courant) est une mesure de la quantité de gaz, tels que le dioxygène (O2) et le dioxyde de carbone (CO2), dissous dans le sang artériel. Cette analyse nécessite de prélever quelques millilitres de sang dans une artère, le plus souvent l'artère radiale au niveau du poignet ; le prélèvement est parfois réalisé dans un autre site tel que l'artère fémorale (dans le pli de l'aine).
 L'analyse consiste à déterminer la pression partielle de dioxygène (PaO2 ou « oxémie »), la pression partielle de dioxyde de carbone (PaCO2 ou capnie) et le pH du sang artériel. On peut aussi calculer la saturation en oxygène (en) (SaO2). Ces paramètres sont d'une importance vitale pour la prise en charge des patients en état critique et/ou atteints de maladies respiratoires, ce qui explique que la gazométrie artérielle soit l'un des examens les plus courants dans les unités de soins intensifs et de réanimation. Dans d'autres environnements de soins, l'oxymétrie de pouls et la mesure transcutanée du taux de dioxyde de carbone peuvent apporter des renseignements similaires.
-Un automate de gazométrie mesure également la concentration sanguine en bicarbonates. De nombreux appareils déterminent aussi les concentrations de lactates, d'hémoglobine, de divers électrolytes (kaliémie, calcémie etc.) ainsi que les taux de différentes formes d'hémoglobine (oxyhémoglobine, carboxyhémoglobine, méthémoglobine). La gazométrie artérielle trouve ses applications principales en pneumologie, en médecine d'urgence et en réanimation pour évaluer l'hématose c'est-à-dire les échanges gazeux (appauvrissement en CO2 et enrichissement en O2) à travers la membrane alvéolocapillaire des poumons. Elle a des applications diverses dans d'autres domaines médicaux. Les combinaisons d'anomalies pouvant être difficiles à interpréter, il est possible de recourir à des outils tels que des règles cliniques[1], des nomogrammes ou encore des calculateurs en ligne[2] pour parvenir au diagnostic à partir du résultat brut de l'analyse.
+Un automate de gazométrie mesure également la concentration sanguine en bicarbonates. De nombreux appareils déterminent aussi les concentrations de lactates, d'hémoglobine, de divers électrolytes (kaliémie, calcémie etc.) ainsi que les taux de différentes formes d'hémoglobine (oxyhémoglobine, carboxyhémoglobine, méthémoglobine). La gazométrie artérielle trouve ses applications principales en pneumologie, en médecine d'urgence et en réanimation pour évaluer l'hématose c'est-à-dire les échanges gazeux (appauvrissement en CO2 et enrichissement en O2) à travers la membrane alvéolocapillaire des poumons. Elle a des applications diverses dans d'autres domaines médicaux. Les combinaisons d'anomalies pouvant être difficiles à interpréter, il est possible de recourir à des outils tels que des règles cliniques, des nomogrammes ou encore des calculateurs en ligne pour parvenir au diagnostic à partir du résultat brut de l'analyse.
 L'analyse des gaz du sang nécessitait initialement l'acheminement du prélèvement depuis le lit du malade jusqu'au laboratoire. Des équipements plus récents de biologie délocalisée permettent de la réaliser sur les lieux de soins et ainsi de raccourcir les délais d'obtention des résultats.
 </t>
         </is>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gazom%C3%A9trie_art%C3%A9rielle</t>
+          <t>Gazométrie_artérielle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Principes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Beaucoup de gaz se dissolvant dans d'autres substances à l'état liquide, le sang contient quelques gaz dissous. La gazométrie artérielle les détecte, ainsi que ceux liés chimiquement aux composants du sang, principalement le dioxygène et le dioxyde de carbone capturés par les hématies.
 Les concentrations de gaz du sang donnent des paramètres plasmatiques permettant d'apprécier la fonction respiratoire de l'organisme ainsi que son équilibre acido-basique. Cet examen permet la surveillance de l'hématose du patient.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gazom%C3%A9trie_art%C3%A9rielle</t>
+          <t>Gazométrie_artérielle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Conditions de prélèvement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les gaz du sang peuvent être dosés dans un prélèvement de sang :
 prélèvement artériel : dans l'artère radiale (au niveau de la partie latérale du poignet) ou dans l'artère fémorale (piqûre dans le pli de l'aine) ;
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gazom%C3%A9trie_art%C3%A9rielle</t>
+          <t>Gazométrie_artérielle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,10 +603,12 @@
           <t>Gazométrie artérielle normale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">pH : 7,38-7,42[3] ;
-PaO2 entre 73 et 100 mmHg, elle dépend de l'âge[4] ; une des méthodes de calcul est 105-(age/2) = valeur idéale minimum pour le patient ;
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pH : 7,38-7,42 ;
+PaO2 entre 73 et 100 mmHg, elle dépend de l'âge ; une des méthodes de calcul est 105-(age/2) = valeur idéale minimum pour le patient ;
 PaCO2 : 35  à   45 mmHg ;
 Bicarbonates (HCO3−) : 22 à 28 mmol/l ;
 SatO2 (saturation artérielle de l'hémoglobine en oxygène) : 95-100 % ;
@@ -605,7 +623,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gazom%C3%A9trie_art%C3%A9rielle</t>
+          <t>Gazométrie_artérielle</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,7 +641,9 @@
           <t>Interprétation de la gazométrie artérielle anormale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acidose est compensée si le pH demeure ≥ 7,38 et décompensée si pH &lt; 7,38
 L'alcalose est compensée si le pH demeure ≤ 7,42 et décompensée si pH &gt; 7,42
@@ -641,7 +661,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Gazom%C3%A9trie_art%C3%A9rielle</t>
+          <t>Gazométrie_artérielle</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -659,11 +679,13 @@
           <t>Autres paramètres analysés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Selon le type d'appareil utilisé, les gaz du sang permettent aussi d'avoir un aperçu plus rapide (en moins de 5 minutes dès l'analyse) même si moins fiables que les analyses classiques d'autres paramètres.
 On peut ainsi mesurer :
-le taux de lactates qui reflète la gravité du patient notamment en cas de choc avec hypoxie tissulaire[5] ;
+le taux de lactates qui reflète la gravité du patient notamment en cas de choc avec hypoxie tissulaire ;
 le ionogramme sanguin dont la kaliémie utile en urgence en cas d'anomalies ECG, la calcémie utile pour régler un débit de citrate lors d'une hémodialyse au citrate.
 le taux d'hémoglobine.</t>
         </is>
@@ -675,7 +697,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gazom%C3%A9trie_art%C3%A9rielle</t>
+          <t>Gazométrie_artérielle</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -693,10 +715,12 @@
           <t>Manœuvre d'Allen</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avant de prélever du sang artériel dans l'artère radiale, certains soignants pratiquent la manœuvre d'Allen, manœuvre qui consiste à comprimer les artères radiale et ulnaire au niveau du poignet, à demander au patient de faire des mouvements de pompe avec sa main jusqu'à ce que celle-ci se décolore, puis à relâcher la pression sur l'artère ulnaire en vérifiant que la main se recolore. Cette précaution permet théoriquement de s'assurer que l'artère ulnaire du patient est fonctionnelle et qu'elle peut suppléer l'artère radiale au cas où celle-ci serait lésée lors du prélèvement[6]. Elle est réglementaire en France[7].
-Cependant le test est peu fiable et ne permet pas de prédire la survenue d'une ischémie après ponction. Sa réalisation systématique n'est pas préconisée par tous les experts[8].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant de prélever du sang artériel dans l'artère radiale, certains soignants pratiquent la manœuvre d'Allen, manœuvre qui consiste à comprimer les artères radiale et ulnaire au niveau du poignet, à demander au patient de faire des mouvements de pompe avec sa main jusqu'à ce que celle-ci se décolore, puis à relâcher la pression sur l'artère ulnaire en vérifiant que la main se recolore. Cette précaution permet théoriquement de s'assurer que l'artère ulnaire du patient est fonctionnelle et qu'elle peut suppléer l'artère radiale au cas où celle-ci serait lésée lors du prélèvement. Elle est réglementaire en France.
+Cependant le test est peu fiable et ne permet pas de prédire la survenue d'une ischémie après ponction. Sa réalisation systématique n'est pas préconisée par tous les experts.
 </t>
         </is>
       </c>
